--- a/supplier_check.xlsx
+++ b/supplier_check.xlsx
@@ -1,57 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhil.agarwal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joyce\Desktop\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5407CC-31FC-47E7-9FC0-90B237E39D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46607F54-4502-4E9B-A922-44AA2A9641C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B30A7224-E4FE-4801-9BC1-B68801BDA012}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A7224-E4FE-4801-9BC1-B68801BDA012}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$49</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>supplier_id</t>
   </si>
   <si>
-    <t>email_id</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>xyz@gmail.com</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>manvi.pahwa1988@gmail.com</t>
+  </si>
+  <si>
+    <t>balajiecomwebsolutions@gmail.com</t>
+  </si>
+  <si>
+    <t>fashiondreamrjp123@gmail.com</t>
+  </si>
+  <si>
+    <t>thisisdheeraj@gmail.com</t>
+  </si>
+  <si>
+    <t>kaseerainternational@gmail.com</t>
+  </si>
+  <si>
+    <t>ahillfashiontex@gmail.com</t>
+  </si>
+  <si>
+    <t>anshul.bhandiya@gmail.com</t>
+  </si>
+  <si>
+    <t>online@khf.co.in</t>
+  </si>
+  <si>
+    <t>ajaykumar14617@yahoo.com</t>
+  </si>
+  <si>
+    <t>littlekidssurat@gmail.com</t>
+  </si>
+  <si>
+    <t>ggcreation2015@gmail.com</t>
+  </si>
+  <si>
+    <t>Princijain19955@gmail.com</t>
+  </si>
+  <si>
+    <t>sumitsehgal2018@gmail.com</t>
+  </si>
+  <si>
+    <t>orders.digimart@gmail.com</t>
+  </si>
+  <si>
+    <t>amaragarments01@gmail.com</t>
+  </si>
+  <si>
+    <t>care@ajoobaa.in</t>
+  </si>
+  <si>
+    <t>celebritycreation2017@gmail.com</t>
+  </si>
+  <si>
+    <t>mollickfaruque@gmail.com</t>
+  </si>
+  <si>
+    <t>raven2018creation@gmail.com</t>
+  </si>
+  <si>
+    <t>kpfashion13@gmail.com</t>
+  </si>
+  <si>
+    <t>shrinathjicollection@gmail.com</t>
+  </si>
+  <si>
+    <t>sekarbiofashion@asia.com</t>
+  </si>
+  <si>
+    <t>gennext875@gmail.com</t>
+  </si>
+  <si>
+    <t>nilesh.nil001@gmail.com</t>
+  </si>
+  <si>
+    <t>cuteborn2018@gmail.com</t>
+  </si>
+  <si>
+    <t>mrbmeesho@gmail.com</t>
+  </si>
+  <si>
+    <t>ramdevfashions2020@gmail.com</t>
+  </si>
+  <si>
+    <t>rejakabdul28@gmail.com</t>
+  </si>
+  <si>
+    <t>BaariandBrothers@gmail.com</t>
+  </si>
+  <si>
+    <t>abdulkhaliq.pathan@gmail.com</t>
+  </si>
+  <si>
+    <t>dgentp17@gmail.com</t>
+  </si>
+  <si>
+    <t>orders.rnr2@gmail.com</t>
+  </si>
+  <si>
+    <t>flashhfashh@gmail.com</t>
+  </si>
+  <si>
+    <t>seemabbhutra@gmail.com</t>
+  </si>
+  <si>
+    <t>aandnlifestyle@gmail.com</t>
+  </si>
+  <si>
+    <t>gupta2166@gmail.com</t>
+  </si>
+  <si>
+    <t>lazysharkapparels@gmail.com</t>
+  </si>
+  <si>
+    <t>nayrainternational2018@gmail.com</t>
+  </si>
+  <si>
+    <t>addyvero9@gmail.com</t>
+  </si>
+  <si>
+    <t>Shashikanthosiery@gmail.com</t>
+  </si>
+  <si>
+    <t>parasaroraltp@gmail.com</t>
+  </si>
+  <si>
+    <t>youngbirds.in@gmail.com</t>
+  </si>
+  <si>
+    <t>bawak2312pawan@gmail.com</t>
+  </si>
+  <si>
+    <t>zebustore@gmail.com</t>
+  </si>
+  <si>
+    <t>arjunbhatia7742@gmail.com</t>
+  </si>
+  <si>
+    <t>monikatradersallportals@gmail.com</t>
+  </si>
+  <si>
+    <t>mandeepsingh13116@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +200,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,14 +228,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -407,15 +569,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D22B3D-5CA9-4EDD-8E34-35D8A2B01B4A}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,31 +586,395 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>420</v>
+        <v>35596</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>34127</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20445</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>33636</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6687</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9157</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>27062</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6165</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2597</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3340</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2433</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>30004</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12898</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11260</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9065</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11007</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7783</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13119</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>16305</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4441</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>14343</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>17313</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>29795</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>13019</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1073</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26403</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>42095</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>13887</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>9459</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10802</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8013</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>30650</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>6559</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10150</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>40109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1489</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>320</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>78</v>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>570</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>13308</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>4620</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>3080</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>22623</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>7001</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>24282</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>20730</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>16872</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>271</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>5808</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{DE3599A0-43E3-49E8-B381-52DB9E81FDA7}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{5A24EADA-1043-4C6C-BD6F-85DAE1F2648C}"/>
+    <hyperlink ref="B2" r:id="rId1" display="abc@gmail.com" xr:uid="{DE3599A0-43E3-49E8-B381-52DB9E81FDA7}"/>
+    <hyperlink ref="B3:B49" r:id="rId2" display="abc@gmail.com" xr:uid="{A74767B4-70EF-4C84-9951-1313D55DABD0}"/>
+    <hyperlink ref="B38" r:id="rId3" xr:uid="{EF4E4128-A671-4656-B8EC-80EF365DA1DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/supplier_check.xlsx
+++ b/supplier_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joyce\Desktop\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46607F54-4502-4E9B-A922-44AA2A9641C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B38390-6437-4E70-82D9-BCAE1ADF2664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A7224-E4FE-4801-9BC1-B68801BDA012}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>supplier_id</t>
   </si>
@@ -39,18 +39,9 @@
     <t>test@gmail.com</t>
   </si>
   <si>
-    <t>manvi.pahwa1988@gmail.com</t>
-  </si>
-  <si>
     <t>balajiecomwebsolutions@gmail.com</t>
   </si>
   <si>
-    <t>fashiondreamrjp123@gmail.com</t>
-  </si>
-  <si>
-    <t>thisisdheeraj@gmail.com</t>
-  </si>
-  <si>
     <t>kaseerainternational@gmail.com</t>
   </si>
   <si>
@@ -60,75 +51,33 @@
     <t>anshul.bhandiya@gmail.com</t>
   </si>
   <si>
-    <t>online@khf.co.in</t>
-  </si>
-  <si>
-    <t>ajaykumar14617@yahoo.com</t>
-  </si>
-  <si>
     <t>littlekidssurat@gmail.com</t>
   </si>
   <si>
-    <t>ggcreation2015@gmail.com</t>
-  </si>
-  <si>
-    <t>Princijain19955@gmail.com</t>
-  </si>
-  <si>
     <t>sumitsehgal2018@gmail.com</t>
   </si>
   <si>
-    <t>orders.digimart@gmail.com</t>
-  </si>
-  <si>
-    <t>amaragarments01@gmail.com</t>
-  </si>
-  <si>
     <t>care@ajoobaa.in</t>
   </si>
   <si>
-    <t>celebritycreation2017@gmail.com</t>
-  </si>
-  <si>
     <t>mollickfaruque@gmail.com</t>
   </si>
   <si>
-    <t>raven2018creation@gmail.com</t>
-  </si>
-  <si>
     <t>kpfashion13@gmail.com</t>
   </si>
   <si>
-    <t>shrinathjicollection@gmail.com</t>
-  </si>
-  <si>
     <t>sekarbiofashion@asia.com</t>
   </si>
   <si>
-    <t>gennext875@gmail.com</t>
-  </si>
-  <si>
     <t>nilesh.nil001@gmail.com</t>
   </si>
   <si>
-    <t>cuteborn2018@gmail.com</t>
-  </si>
-  <si>
     <t>mrbmeesho@gmail.com</t>
   </si>
   <si>
-    <t>ramdevfashions2020@gmail.com</t>
-  </si>
-  <si>
     <t>rejakabdul28@gmail.com</t>
   </si>
   <si>
-    <t>BaariandBrothers@gmail.com</t>
-  </si>
-  <si>
-    <t>abdulkhaliq.pathan@gmail.com</t>
-  </si>
-  <si>
     <t>dgentp17@gmail.com</t>
   </si>
   <si>
@@ -138,46 +87,43 @@
     <t>flashhfashh@gmail.com</t>
   </si>
   <si>
-    <t>seemabbhutra@gmail.com</t>
-  </si>
-  <si>
-    <t>aandnlifestyle@gmail.com</t>
-  </si>
-  <si>
-    <t>gupta2166@gmail.com</t>
-  </si>
-  <si>
     <t>lazysharkapparels@gmail.com</t>
   </si>
   <si>
-    <t>nayrainternational2018@gmail.com</t>
-  </si>
-  <si>
     <t>addyvero9@gmail.com</t>
   </si>
   <si>
-    <t>Shashikanthosiery@gmail.com</t>
-  </si>
-  <si>
-    <t>parasaroraltp@gmail.com</t>
-  </si>
-  <si>
-    <t>youngbirds.in@gmail.com</t>
-  </si>
-  <si>
-    <t>bawak2312pawan@gmail.com</t>
-  </si>
-  <si>
-    <t>zebustore@gmail.com</t>
-  </si>
-  <si>
-    <t>arjunbhatia7742@gmail.com</t>
-  </si>
-  <si>
-    <t>monikatradersallportals@gmail.com</t>
-  </si>
-  <si>
-    <t>mandeepsingh13116@gmail.com</t>
+    <t>newgen2018mail@gmail.com</t>
+  </si>
+  <si>
+    <t>shreejigarments1@gmail.com</t>
+  </si>
+  <si>
+    <t>bajajsaurabh918@gmail.com</t>
+  </si>
+  <si>
+    <t>prince.hosiery@yahoo.com</t>
+  </si>
+  <si>
+    <t>orders.sparsh@gmail.com</t>
+  </si>
+  <si>
+    <t>princijain19955@gmail.com</t>
+  </si>
+  <si>
+    <t>baariandbrothers@gmail.com</t>
+  </si>
+  <si>
+    <t>thanishameesho@gmail.com</t>
+  </si>
+  <si>
+    <t>yogeshbinani@gmail.com</t>
+  </si>
+  <si>
+    <t>sk871202@gmail.com</t>
+  </si>
+  <si>
+    <t>olkatrend@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -588,90 +534,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>35596</v>
+        <v>1489</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>34127</v>
+        <v>17403</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>20445</v>
+        <v>21442</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>33636</v>
+        <v>17462</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6687</v>
+        <v>27062</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9157</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>27062</v>
+        <v>7718</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6165</v>
+        <v>34127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2597</v>
+        <v>8013</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3340</v>
+        <v>45678</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2433</v>
+        <v>1073</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -679,302 +625,220 @@
         <v>30004</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12898</v>
+        <v>17313</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11260</v>
+        <v>6687</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9065</v>
+        <v>13887</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11007</v>
+        <v>10802</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7783</v>
+        <v>42095</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>13119</v>
+        <v>43697</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>16305</v>
+        <v>13119</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>4441</v>
+        <v>4620</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>14343</v>
+        <v>11007</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>17313</v>
+        <v>9157</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>29795</v>
+        <v>27747</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>78</v>
+        <v>4441</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>13019</v>
+        <v>24823</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1073</v>
+        <v>3340</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26403</v>
+        <v>12898</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>42095</v>
+        <v>570</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>13887</v>
+        <v>30650</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9459</v>
+        <v>43841</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>10802</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>8013</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>30650</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>6559</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>10150</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>40109</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>1489</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>570</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>13308</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>4620</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>3080</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>22623</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>7001</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>24282</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>20730</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>16872</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>271</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>5808</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="abc@gmail.com" xr:uid="{DE3599A0-43E3-49E8-B381-52DB9E81FDA7}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{EF4E4128-A671-4656-B8EC-80EF365DA1DC}"/>
     <hyperlink ref="B3:B49" r:id="rId2" display="abc@gmail.com" xr:uid="{A74767B4-70EF-4C84-9951-1313D55DABD0}"/>
-    <hyperlink ref="B38" r:id="rId3" xr:uid="{EF4E4128-A671-4656-B8EC-80EF365DA1DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/supplier_check.xlsx
+++ b/supplier_check.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joyce\Desktop\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B38390-6437-4E70-82D9-BCAE1ADF2664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDB70A3-71DE-4750-B353-85ABF5805244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A7224-E4FE-4801-9BC1-B68801BDA012}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>supplier_id</t>
   </si>
@@ -36,9 +36,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
     <t>balajiecomwebsolutions@gmail.com</t>
   </si>
   <si>
@@ -102,18 +99,9 @@
     <t>bajajsaurabh918@gmail.com</t>
   </si>
   <si>
-    <t>prince.hosiery@yahoo.com</t>
-  </si>
-  <si>
     <t>orders.sparsh@gmail.com</t>
   </si>
   <si>
-    <t>princijain19955@gmail.com</t>
-  </si>
-  <si>
-    <t>baariandbrothers@gmail.com</t>
-  </si>
-  <si>
     <t>thanishameesho@gmail.com</t>
   </si>
   <si>
@@ -123,7 +111,220 @@
     <t>sk871202@gmail.com</t>
   </si>
   <si>
-    <t>olkatrend@gmail.com</t>
+    <t>supplier_name</t>
+  </si>
+  <si>
+    <t>NEW GEN stepping to future</t>
+  </si>
+  <si>
+    <t>Jisha Kids Wear</t>
+  </si>
+  <si>
+    <t>Appleblossom-</t>
+  </si>
+  <si>
+    <t>Jitendra@ Dresses</t>
+  </si>
+  <si>
+    <t>Prince Hosiery -</t>
+  </si>
+  <si>
+    <t>Prince.hosiery@yahoo.com</t>
+  </si>
+  <si>
+    <t>Balaji E Com Web Solutions</t>
+  </si>
+  <si>
+    <t>S_CREATION</t>
+  </si>
+  <si>
+    <t>NVH-</t>
+  </si>
+  <si>
+    <t>Princijain19955@gmail.com</t>
+  </si>
+  <si>
+    <t>Bio Fashion</t>
+  </si>
+  <si>
+    <t>vest_wear</t>
+  </si>
+  <si>
+    <t>BARI AND BROTHERS</t>
+  </si>
+  <si>
+    <t>BaariandBrothers@gmail.com</t>
+  </si>
+  <si>
+    <t>ROSHNI KIDS GARMENTS</t>
+  </si>
+  <si>
+    <t>Maruf Dresses</t>
+  </si>
+  <si>
+    <t>Ajoobaa</t>
+  </si>
+  <si>
+    <t>CHEMISTRY-</t>
+  </si>
+  <si>
+    <t>RKN Exports</t>
+  </si>
+  <si>
+    <t>Bawa Enterprises</t>
+  </si>
+  <si>
+    <t>bawak2312pawan@gmail.com</t>
+  </si>
+  <si>
+    <t>Snoby-</t>
+  </si>
+  <si>
+    <t>ramdevfashions2020@gmail.com</t>
+  </si>
+  <si>
+    <t>Sunday Casual-</t>
+  </si>
+  <si>
+    <t>sundaycasual123@gmail.com</t>
+  </si>
+  <si>
+    <t>X BOYZ-</t>
+  </si>
+  <si>
+    <t>Shashikanthosiery@gmail.com</t>
+  </si>
+  <si>
+    <t>Raven Creation</t>
+  </si>
+  <si>
+    <t>raven2018creation@gmail.com</t>
+  </si>
+  <si>
+    <t>AP ETHNICS</t>
+  </si>
+  <si>
+    <t>apparelsfashionsurat@gmail.com</t>
+  </si>
+  <si>
+    <t>Jackoff fashions</t>
+  </si>
+  <si>
+    <t>anuraagjaiin147@gmail.com</t>
+  </si>
+  <si>
+    <t>FASHION DREAM</t>
+  </si>
+  <si>
+    <t>fashiondreamrjp123@gmail.com</t>
+  </si>
+  <si>
+    <t>burbn kids wear</t>
+  </si>
+  <si>
+    <t>aandnlifestyle@gmail.com</t>
+  </si>
+  <si>
+    <t>RNR CREATION-</t>
+  </si>
+  <si>
+    <t>NEW LITTLE</t>
+  </si>
+  <si>
+    <t>LSH Supplier</t>
+  </si>
+  <si>
+    <t>Techman Exporters</t>
+  </si>
+  <si>
+    <t>techmanexporters105@gmail.com</t>
+  </si>
+  <si>
+    <t>Varun Traders</t>
+  </si>
+  <si>
+    <t>manvi.pahwa1988@gmail.com</t>
+  </si>
+  <si>
+    <t>Nayra International</t>
+  </si>
+  <si>
+    <t>nayrainternational2018@gmail.com</t>
+  </si>
+  <si>
+    <t>JIMBILL</t>
+  </si>
+  <si>
+    <t>parasaroraltp@gmail.com</t>
+  </si>
+  <si>
+    <t>OM SAI KIDSWORLD</t>
+  </si>
+  <si>
+    <t>omsaikidsworld@gmail.com</t>
+  </si>
+  <si>
+    <t>YOUNG BIRDS</t>
+  </si>
+  <si>
+    <t>youngbirds.in@gmail.com</t>
+  </si>
+  <si>
+    <t>SHRI_ ENTPR</t>
+  </si>
+  <si>
+    <t>shrishasmenterprises@gmail.com</t>
+  </si>
+  <si>
+    <t>kothari kids wear</t>
+  </si>
+  <si>
+    <t>online@khf.co.in</t>
+  </si>
+  <si>
+    <t>Kids Villa</t>
+  </si>
+  <si>
+    <t>mandeepsingh13116@gmail.com</t>
+  </si>
+  <si>
+    <t>aglare kids wear</t>
+  </si>
+  <si>
+    <t>anitabalia@gmail.com</t>
+  </si>
+  <si>
+    <t>Nazara Fashion</t>
+  </si>
+  <si>
+    <t>RB fashions</t>
+  </si>
+  <si>
+    <t>Deb and Ghosh Fashion</t>
+  </si>
+  <si>
+    <t>THANISHA ENTERPRISE</t>
+  </si>
+  <si>
+    <t>ADDY</t>
+  </si>
+  <si>
+    <t>Hellcat-</t>
+  </si>
+  <si>
+    <t>shree ethnic</t>
+  </si>
+  <si>
+    <t>s.k.multiseller</t>
+  </si>
+  <si>
+    <t>Sky Heights</t>
+  </si>
+  <si>
+    <t>Olka Trend</t>
+  </si>
+  <si>
+    <t>info.rinkalfashion@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D22B3D-5CA9-4EDD-8E34-35D8A2B01B4A}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,322 +725,546 @@
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1489</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>17403</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>21442</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>17462</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>27062</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7718</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>34127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>17403</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>21442</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>17462</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>45678</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>27062</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>30004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>17313</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6687</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>13887</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>42095</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>27747</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>30650</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>24282</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>26403</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17809</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3080</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16305</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10419</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20445</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8013</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3340</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7718</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>34127</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8013</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>45678</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1073</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>30004</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>17313</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>6687</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>13887</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>10802</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>42095</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>43697</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>13119</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>4620</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>11007</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>9157</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>27747</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>4441</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24823</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>3340</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>12898</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>570</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>21540</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>35596</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>13308</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>22623</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32721</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7001</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>19942</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6165</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>5808</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>6162</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>1073</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>10802</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>4620</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>30650</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>9157</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>4441</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>24823</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>12898</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
         <v>43841</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EF4E4128-A671-4656-B8EC-80EF365DA1DC}"/>
-    <hyperlink ref="B3:B49" r:id="rId2" display="abc@gmail.com" xr:uid="{A74767B4-70EF-4C84-9951-1313D55DABD0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>